--- a/natmiOut/OldD4/LR-pairs_lrc2p/Cd34-Selp.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Cd34-Selp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +95,6 @@
   </si>
   <si>
     <t>Selp</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>137.16009702379</v>
+        <v>181.777022</v>
       </c>
       <c r="H2">
-        <v>137.16009702379</v>
+        <v>545.331066</v>
       </c>
       <c r="I2">
-        <v>0.6179140039711148</v>
+        <v>0.674524008100009</v>
       </c>
       <c r="J2">
-        <v>0.6179140039711148</v>
+        <v>0.6869174838889931</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.2927159299736</v>
+        <v>30.47780866666666</v>
       </c>
       <c r="N2">
-        <v>13.2927159299736</v>
+        <v>91.433426</v>
       </c>
       <c r="O2">
-        <v>0.9775852961207312</v>
+        <v>0.9838017987059956</v>
       </c>
       <c r="P2">
-        <v>0.9775852961207312</v>
+        <v>0.9848051540204799</v>
       </c>
       <c r="Q2">
-        <v>1823.230206664858</v>
+        <v>5540.165296512457</v>
       </c>
       <c r="R2">
-        <v>1823.230206664858</v>
+        <v>49861.48766861211</v>
       </c>
       <c r="S2">
-        <v>0.604063644549249</v>
+        <v>0.6635979324391664</v>
       </c>
       <c r="T2">
-        <v>0.604063644549249</v>
+        <v>0.6764798785206604</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,309 +587,1487 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>137.16009702379</v>
+        <v>181.777022</v>
       </c>
       <c r="H3">
-        <v>137.16009702379</v>
+        <v>545.331066</v>
       </c>
       <c r="I3">
-        <v>0.6179140039711148</v>
+        <v>0.674524008100009</v>
       </c>
       <c r="J3">
-        <v>0.6179140039711148</v>
+        <v>0.6869174838889931</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.304783932925277</v>
+        <v>0.04441233333333333</v>
       </c>
       <c r="N3">
-        <v>0.304783932925277</v>
+        <v>0.133237</v>
       </c>
       <c r="O3">
-        <v>0.02241470387926884</v>
+        <v>0.001433598258192696</v>
       </c>
       <c r="P3">
-        <v>0.02241470387926884</v>
+        <v>0.001435060349879339</v>
       </c>
       <c r="Q3">
-        <v>41.80419381132329</v>
+        <v>8.073141693404665</v>
       </c>
       <c r="R3">
-        <v>41.80419381132329</v>
+        <v>72.658275240642</v>
       </c>
       <c r="S3">
-        <v>0.01385035942186589</v>
+        <v>0.0009669964431213286</v>
       </c>
       <c r="T3">
-        <v>0.01385035942186589</v>
+        <v>0.0009857680447679738</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>70.3747107092339</v>
+        <v>181.777022</v>
       </c>
       <c r="H4">
-        <v>70.3747107092339</v>
+        <v>545.331066</v>
       </c>
       <c r="I4">
-        <v>0.3170420568097818</v>
+        <v>0.674524008100009</v>
       </c>
       <c r="J4">
-        <v>0.3170420568097818</v>
+        <v>0.6869174838889931</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>13.2927159299736</v>
+        <v>0.00569</v>
       </c>
       <c r="N4">
-        <v>13.2927159299736</v>
+        <v>0.01707</v>
       </c>
       <c r="O4">
-        <v>0.9775852961207312</v>
+        <v>0.0001836691179428336</v>
       </c>
       <c r="P4">
-        <v>0.9775852961207312</v>
+        <v>0.0001838564375694463</v>
       </c>
       <c r="Q4">
-        <v>935.4710381119171</v>
+        <v>1.03431125518</v>
       </c>
       <c r="R4">
-        <v>935.4710381119171</v>
+        <v>9.308801296619999</v>
       </c>
       <c r="S4">
-        <v>0.3099356529891162</v>
+        <v>0.0001238892295989934</v>
       </c>
       <c r="T4">
-        <v>0.3099356529891162</v>
+        <v>0.0001262942014919978</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>70.3747107092339</v>
+        <v>181.777022</v>
       </c>
       <c r="H5">
-        <v>70.3747107092339</v>
+        <v>545.331066</v>
       </c>
       <c r="I5">
-        <v>0.3170420568097818</v>
+        <v>0.674524008100009</v>
       </c>
       <c r="J5">
-        <v>0.3170420568097818</v>
+        <v>0.6869174838889931</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.304783932925277</v>
+        <v>0.3570223333333333</v>
       </c>
       <c r="N5">
-        <v>0.304783932925277</v>
+        <v>1.071067</v>
       </c>
       <c r="O5">
-        <v>0.02241470387926884</v>
+        <v>0.0115244247889676</v>
       </c>
       <c r="P5">
-        <v>0.02241470387926884</v>
+        <v>0.01153617826702954</v>
       </c>
       <c r="Q5">
-        <v>21.44908110843892</v>
+        <v>64.89845654082467</v>
       </c>
       <c r="R5">
-        <v>21.44908110843892</v>
+        <v>584.086108867422</v>
       </c>
       <c r="S5">
-        <v>0.007106403820665588</v>
+        <v>0.007773501199701526</v>
       </c>
       <c r="T5">
-        <v>0.007106403820665588</v>
+        <v>0.007924402548882815</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.4379848276084</v>
+        <v>181.777022</v>
       </c>
       <c r="H6">
-        <v>14.4379848276084</v>
+        <v>545.331066</v>
       </c>
       <c r="I6">
-        <v>0.06504393921910333</v>
+        <v>0.674524008100009</v>
       </c>
       <c r="J6">
-        <v>0.06504393921910333</v>
+        <v>0.6869174838889931</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>13.2927159299736</v>
+        <v>0.0946895</v>
       </c>
       <c r="N6">
-        <v>13.2927159299736</v>
+        <v>0.189379</v>
       </c>
       <c r="O6">
-        <v>0.9775852961207312</v>
+        <v>0.003056509128901219</v>
       </c>
       <c r="P6">
-        <v>0.9775852961207312</v>
+        <v>0.002039750925041838</v>
       </c>
       <c r="Q6">
-        <v>191.9200309146673</v>
+        <v>17.212375324669</v>
       </c>
       <c r="R6">
-        <v>191.9200309146673</v>
+        <v>103.274251948014</v>
       </c>
       <c r="S6">
-        <v>0.06358599858236597</v>
+        <v>0.002061688788420717</v>
       </c>
       <c r="T6">
-        <v>0.06358599858236597</v>
+        <v>0.001401140573189986</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>72.32699966666667</v>
+      </c>
+      <c r="H7">
+        <v>216.980999</v>
+      </c>
+      <c r="I7">
+        <v>0.2683853942167015</v>
+      </c>
+      <c r="J7">
+        <v>0.2733166165978157</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>30.47780866666666</v>
+      </c>
+      <c r="N7">
+        <v>91.433426</v>
+      </c>
+      <c r="O7">
+        <v>0.9838017987059956</v>
+      </c>
+      <c r="P7">
+        <v>0.9848051540204799</v>
+      </c>
+      <c r="Q7">
+        <v>2204.36845727473</v>
+      </c>
+      <c r="R7">
+        <v>19839.31611547257</v>
+      </c>
+      <c r="S7">
+        <v>0.2640380335768087</v>
+      </c>
+      <c r="T7">
+        <v>0.2691636127049683</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>72.32699966666667</v>
+      </c>
+      <c r="H8">
+        <v>216.980999</v>
+      </c>
+      <c r="I8">
+        <v>0.2683853942167015</v>
+      </c>
+      <c r="J8">
+        <v>0.2733166165978157</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.04441233333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.133237</v>
+      </c>
+      <c r="O8">
+        <v>0.001433598258192696</v>
+      </c>
+      <c r="P8">
+        <v>0.001435060349879339</v>
+      </c>
+      <c r="Q8">
+        <v>3.212210818195889</v>
+      </c>
+      <c r="R8">
+        <v>28.909897363763</v>
+      </c>
+      <c r="S8">
+        <v>0.0003847568336734233</v>
+      </c>
+      <c r="T8">
+        <v>0.0003922258394426986</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>72.32699966666667</v>
+      </c>
+      <c r="H9">
+        <v>216.980999</v>
+      </c>
+      <c r="I9">
+        <v>0.2683853942167015</v>
+      </c>
+      <c r="J9">
+        <v>0.2733166165978157</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.00569</v>
+      </c>
+      <c r="N9">
+        <v>0.01707</v>
+      </c>
+      <c r="O9">
+        <v>0.0001836691179428336</v>
+      </c>
+      <c r="P9">
+        <v>0.0001838564375694463</v>
+      </c>
+      <c r="Q9">
+        <v>0.4115406281033333</v>
+      </c>
+      <c r="R9">
+        <v>3.70386565293</v>
+      </c>
+      <c r="S9">
+        <v>4.929410862452122E-05</v>
+      </c>
+      <c r="T9">
+        <v>5.025101945620859E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>72.32699966666667</v>
+      </c>
+      <c r="H10">
+        <v>216.980999</v>
+      </c>
+      <c r="I10">
+        <v>0.2683853942167015</v>
+      </c>
+      <c r="J10">
+        <v>0.2733166165978157</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.3570223333333333</v>
+      </c>
+      <c r="N10">
+        <v>1.071067</v>
+      </c>
+      <c r="O10">
+        <v>0.0115244247889676</v>
+      </c>
+      <c r="P10">
+        <v>0.01153617826702954</v>
+      </c>
+      <c r="Q10">
+        <v>25.82235418399256</v>
+      </c>
+      <c r="R10">
+        <v>232.401187655933</v>
+      </c>
+      <c r="S10">
+        <v>0.003092987290107796</v>
+      </c>
+      <c r="T10">
+        <v>0.003153029212413766</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>14.4379848276084</v>
-      </c>
-      <c r="H7">
-        <v>14.4379848276084</v>
-      </c>
-      <c r="I7">
-        <v>0.06504393921910333</v>
-      </c>
-      <c r="J7">
-        <v>0.06504393921910333</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.304783932925277</v>
-      </c>
-      <c r="N7">
-        <v>0.304783932925277</v>
-      </c>
-      <c r="O7">
-        <v>0.02241470387926884</v>
-      </c>
-      <c r="P7">
-        <v>0.02241470387926884</v>
-      </c>
-      <c r="Q7">
-        <v>4.400465799273966</v>
-      </c>
-      <c r="R7">
-        <v>4.400465799273966</v>
-      </c>
-      <c r="S7">
-        <v>0.001457940636737362</v>
-      </c>
-      <c r="T7">
-        <v>0.001457940636737362</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>72.32699966666667</v>
+      </c>
+      <c r="H11">
+        <v>216.980999</v>
+      </c>
+      <c r="I11">
+        <v>0.2683853942167015</v>
+      </c>
+      <c r="J11">
+        <v>0.2733166165978157</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>0.0946895</v>
+      </c>
+      <c r="N11">
+        <v>0.189379</v>
+      </c>
+      <c r="O11">
+        <v>0.003056509128901219</v>
+      </c>
+      <c r="P11">
+        <v>0.002039750925041838</v>
+      </c>
+      <c r="Q11">
+        <v>6.848607434936833</v>
+      </c>
+      <c r="R11">
+        <v>41.091644609621</v>
+      </c>
+      <c r="S11">
+        <v>0.0008203224074871007</v>
+      </c>
+      <c r="T11">
+        <v>0.0005574978215347</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.1272716666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.381815</v>
+      </c>
+      <c r="I12">
+        <v>0.0004722697829078107</v>
+      </c>
+      <c r="J12">
+        <v>0.0004809471080290077</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>30.47780866666666</v>
+      </c>
+      <c r="N12">
+        <v>91.433426</v>
+      </c>
+      <c r="O12">
+        <v>0.9838017987059956</v>
+      </c>
+      <c r="P12">
+        <v>0.9848051540204799</v>
+      </c>
+      <c r="Q12">
+        <v>3.878961505354444</v>
+      </c>
+      <c r="R12">
+        <v>34.91065354819</v>
+      </c>
+      <c r="S12">
+        <v>0.0004646198618991942</v>
+      </c>
+      <c r="T12">
+        <v>0.0004736391907982113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1272716666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.381815</v>
+      </c>
+      <c r="I13">
+        <v>0.0004722697829078107</v>
+      </c>
+      <c r="J13">
+        <v>0.0004809471080290077</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.04441233333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.133237</v>
+      </c>
+      <c r="O13">
+        <v>0.001433598258192696</v>
+      </c>
+      <c r="P13">
+        <v>0.001435060349879339</v>
+      </c>
+      <c r="Q13">
+        <v>0.005652431683888889</v>
+      </c>
+      <c r="R13">
+        <v>0.050871885155</v>
+      </c>
+      <c r="S13">
+        <v>6.770451381736799E-07</v>
+      </c>
+      <c r="T13">
+        <v>6.901881251215641E-07</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.1272716666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.381815</v>
+      </c>
+      <c r="I14">
+        <v>0.0004722697829078107</v>
+      </c>
+      <c r="J14">
+        <v>0.0004809471080290077</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.00569</v>
+      </c>
+      <c r="N14">
+        <v>0.01707</v>
+      </c>
+      <c r="O14">
+        <v>0.0001836691179428336</v>
+      </c>
+      <c r="P14">
+        <v>0.0001838564375694463</v>
+      </c>
+      <c r="Q14">
+        <v>0.0007241757833333333</v>
+      </c>
+      <c r="R14">
+        <v>0.00651758205</v>
+      </c>
+      <c r="S14">
+        <v>8.674137445773107E-08</v>
+      </c>
+      <c r="T14">
+        <v>8.8425221941541E-08</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.1272716666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.381815</v>
+      </c>
+      <c r="I15">
+        <v>0.0004722697829078107</v>
+      </c>
+      <c r="J15">
+        <v>0.0004809471080290077</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.3570223333333333</v>
+      </c>
+      <c r="N15">
+        <v>1.071067</v>
+      </c>
+      <c r="O15">
+        <v>0.0115244247889676</v>
+      </c>
+      <c r="P15">
+        <v>0.01153617826702954</v>
+      </c>
+      <c r="Q15">
+        <v>0.04543882740055556</v>
+      </c>
+      <c r="R15">
+        <v>0.408949446605</v>
+      </c>
+      <c r="S15">
+        <v>5.44263759322312E-06</v>
+      </c>
+      <c r="T15">
+        <v>5.548291575234945E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.1272716666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.381815</v>
+      </c>
+      <c r="I16">
+        <v>0.0004722697829078107</v>
+      </c>
+      <c r="J16">
+        <v>0.0004809471080290077</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.0946895</v>
+      </c>
+      <c r="N16">
+        <v>0.189379</v>
+      </c>
+      <c r="O16">
+        <v>0.003056509128901219</v>
+      </c>
+      <c r="P16">
+        <v>0.002039750925041838</v>
+      </c>
+      <c r="Q16">
+        <v>0.01205129048083333</v>
+      </c>
+      <c r="R16">
+        <v>0.072307742885</v>
+      </c>
+      <c r="S16">
+        <v>1.44349690276192E-06</v>
+      </c>
+      <c r="T16">
+        <v>9.810123084983654E-07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.6715256666666667</v>
+      </c>
+      <c r="H17">
+        <v>2.014577</v>
+      </c>
+      <c r="I17">
+        <v>0.002491845114626373</v>
+      </c>
+      <c r="J17">
+        <v>0.002537629433237966</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>30.47780866666666</v>
+      </c>
+      <c r="N17">
+        <v>91.433426</v>
+      </c>
+      <c r="O17">
+        <v>0.9838017987059956</v>
+      </c>
+      <c r="P17">
+        <v>0.9848051540204799</v>
+      </c>
+      <c r="Q17">
+        <v>20.46663078342244</v>
+      </c>
+      <c r="R17">
+        <v>184.199677050802</v>
+      </c>
+      <c r="S17">
+        <v>0.002451481705866173</v>
+      </c>
+      <c r="T17">
+        <v>0.002499070544846819</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.6715256666666667</v>
+      </c>
+      <c r="H18">
+        <v>2.014577</v>
+      </c>
+      <c r="I18">
+        <v>0.002491845114626373</v>
+      </c>
+      <c r="J18">
+        <v>0.002537629433237966</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.04441233333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.133237</v>
+      </c>
+      <c r="O18">
+        <v>0.001433598258192696</v>
+      </c>
+      <c r="P18">
+        <v>0.001435060349879339</v>
+      </c>
+      <c r="Q18">
+        <v>0.02982402174988889</v>
+      </c>
+      <c r="R18">
+        <v>0.268416195749</v>
+      </c>
+      <c r="S18">
+        <v>3.572304816014346E-06</v>
+      </c>
+      <c r="T18">
+        <v>3.641651382326585E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.6715256666666667</v>
+      </c>
+      <c r="H19">
+        <v>2.014577</v>
+      </c>
+      <c r="I19">
+        <v>0.002491845114626373</v>
+      </c>
+      <c r="J19">
+        <v>0.002537629433237966</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.00569</v>
+      </c>
+      <c r="N19">
+        <v>0.01707</v>
+      </c>
+      <c r="O19">
+        <v>0.0001836691179428336</v>
+      </c>
+      <c r="P19">
+        <v>0.0001838564375694463</v>
+      </c>
+      <c r="Q19">
+        <v>0.003820981043333333</v>
+      </c>
+      <c r="R19">
+        <v>0.03438882939</v>
+      </c>
+      <c r="S19">
+        <v>4.576749942535848E-07</v>
+      </c>
+      <c r="T19">
+        <v>4.665595074665056E-07</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.6715256666666667</v>
+      </c>
+      <c r="H20">
+        <v>2.014577</v>
+      </c>
+      <c r="I20">
+        <v>0.002491845114626373</v>
+      </c>
+      <c r="J20">
+        <v>0.002537629433237966</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.3570223333333333</v>
+      </c>
+      <c r="N20">
+        <v>1.071067</v>
+      </c>
+      <c r="O20">
+        <v>0.0115244247889676</v>
+      </c>
+      <c r="P20">
+        <v>0.01153617826702954</v>
+      </c>
+      <c r="Q20">
+        <v>0.2397496604065556</v>
+      </c>
+      <c r="R20">
+        <v>2.157746943659</v>
+      </c>
+      <c r="S20">
+        <v>2.871708160926798E-05</v>
+      </c>
+      <c r="T20">
+        <v>2.927454551749431E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.6715256666666667</v>
+      </c>
+      <c r="H21">
+        <v>2.014577</v>
+      </c>
+      <c r="I21">
+        <v>0.002491845114626373</v>
+      </c>
+      <c r="J21">
+        <v>0.002537629433237966</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.0946895</v>
+      </c>
+      <c r="N21">
+        <v>0.189379</v>
+      </c>
+      <c r="O21">
+        <v>0.003056509128901219</v>
+      </c>
+      <c r="P21">
+        <v>0.002039750925041838</v>
+      </c>
+      <c r="Q21">
+        <v>0.06358642961383333</v>
+      </c>
+      <c r="R21">
+        <v>0.381518577683</v>
+      </c>
+      <c r="S21">
+        <v>7.616347340663413E-06</v>
+      </c>
+      <c r="T21">
+        <v>5.176131983860537E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>14.5865095</v>
+      </c>
+      <c r="H22">
+        <v>29.173019</v>
+      </c>
+      <c r="I22">
+        <v>0.05412648278575528</v>
+      </c>
+      <c r="J22">
+        <v>0.03674732297192435</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>30.47780866666666</v>
+      </c>
+      <c r="N22">
+        <v>91.433426</v>
+      </c>
+      <c r="O22">
+        <v>0.9838017987059956</v>
+      </c>
+      <c r="P22">
+        <v>0.9848051540204799</v>
+      </c>
+      <c r="Q22">
+        <v>444.5648456555156</v>
+      </c>
+      <c r="R22">
+        <v>2667.389073933094</v>
+      </c>
+      <c r="S22">
+        <v>0.05324973112225516</v>
+      </c>
+      <c r="T22">
+        <v>0.03618895305920627</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>14.5865095</v>
+      </c>
+      <c r="H23">
+        <v>29.173019</v>
+      </c>
+      <c r="I23">
+        <v>0.05412648278575528</v>
+      </c>
+      <c r="J23">
+        <v>0.03674732297192435</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.04441233333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.133237</v>
+      </c>
+      <c r="O23">
+        <v>0.001433598258192696</v>
+      </c>
+      <c r="P23">
+        <v>0.001435060349879339</v>
+      </c>
+      <c r="Q23">
+        <v>0.6478209220838334</v>
+      </c>
+      <c r="R23">
+        <v>3.886925532503</v>
+      </c>
+      <c r="S23">
+        <v>7.75956314437557E-05</v>
+      </c>
+      <c r="T23">
+        <v>5.273462616121883E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>14.5865095</v>
+      </c>
+      <c r="H24">
+        <v>29.173019</v>
+      </c>
+      <c r="I24">
+        <v>0.05412648278575528</v>
+      </c>
+      <c r="J24">
+        <v>0.03674732297192435</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.00569</v>
+      </c>
+      <c r="N24">
+        <v>0.01707</v>
+      </c>
+      <c r="O24">
+        <v>0.0001836691179428336</v>
+      </c>
+      <c r="P24">
+        <v>0.0001838564375694463</v>
+      </c>
+      <c r="Q24">
+        <v>0.08299723905499999</v>
+      </c>
+      <c r="R24">
+        <v>0.49798343433</v>
+      </c>
+      <c r="S24">
+        <v>9.941363350607637E-06</v>
+      </c>
+      <c r="T24">
+        <v>6.756231891831889E-06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>14.5865095</v>
+      </c>
+      <c r="H25">
+        <v>29.173019</v>
+      </c>
+      <c r="I25">
+        <v>0.05412648278575528</v>
+      </c>
+      <c r="J25">
+        <v>0.03674732297192435</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.3570223333333333</v>
+      </c>
+      <c r="N25">
+        <v>1.071067</v>
+      </c>
+      <c r="O25">
+        <v>0.0115244247889676</v>
+      </c>
+      <c r="P25">
+        <v>0.01153617826702954</v>
+      </c>
+      <c r="Q25">
+        <v>5.207709656878833</v>
+      </c>
+      <c r="R25">
+        <v>31.246257941273</v>
+      </c>
+      <c r="S25">
+        <v>0.0006237765799557862</v>
+      </c>
+      <c r="T25">
+        <v>0.0004239236686402289</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>14.5865095</v>
+      </c>
+      <c r="H26">
+        <v>29.173019</v>
+      </c>
+      <c r="I26">
+        <v>0.05412648278575528</v>
+      </c>
+      <c r="J26">
+        <v>0.03674732297192435</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.0946895</v>
+      </c>
+      <c r="N26">
+        <v>0.189379</v>
+      </c>
+      <c r="O26">
+        <v>0.003056509128901219</v>
+      </c>
+      <c r="P26">
+        <v>0.002039750925041838</v>
+      </c>
+      <c r="Q26">
+        <v>1.38118929130025</v>
+      </c>
+      <c r="R26">
+        <v>5.524757165201</v>
+      </c>
+      <c r="S26">
+        <v>0.0001654380887499757</v>
+      </c>
+      <c r="T26">
+        <v>7.495538602479388E-05</v>
       </c>
     </row>
   </sheetData>
